--- a/virginiaSuicideDataSet.xlsx
+++ b/virginiaSuicideDataSet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27780" yWindow="4380" windowWidth="17800" windowHeight="22340" tabRatio="500"/>
+    <workbookView xWindow="23360" yWindow="220" windowWidth="17800" windowHeight="22340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,74 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="105">
+  <si>
+    <t>fluvanna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>franklin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frederick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloucester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goochland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grayson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greensville</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>halifax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hanover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>henrico</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>henry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isle_of_wight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king_george</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king_william</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>lancaster</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -370,85 +438,11 @@
     <t>floyd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>fluvanna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>franklin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>frederick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gloucester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goochland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grayson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>greensville</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>halifax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hanover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>henrico</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>henry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>highland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isle_of_wight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king_george</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>king_william</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -459,12 +453,18 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,9 +479,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -814,9 +815,9 @@
   <dimension ref="A2:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1300" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="1300" topLeftCell="A382" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="H105" sqref="H105"/>
+      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -828,33 +829,33 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2006</v>
@@ -880,7 +881,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>2007</v>
@@ -906,7 +907,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>2008</v>
@@ -926,10 +927,13 @@
       <c r="G5">
         <v>949</v>
       </c>
+      <c r="H5">
+        <v>102</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2009</v>
@@ -949,10 +953,13 @@
       <c r="G6">
         <v>1331</v>
       </c>
+      <c r="H6">
+        <v>127</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -972,10 +979,13 @@
       <c r="G7">
         <v>1334</v>
       </c>
+      <c r="H7">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>2011</v>
@@ -998,7 +1008,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>2006</v>
@@ -1024,7 +1034,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>2007</v>
@@ -1050,7 +1060,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>2008</v>
@@ -1070,10 +1080,13 @@
       <c r="G11">
         <v>1572</v>
       </c>
+      <c r="H11">
+        <v>160</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>2009</v>
@@ -1093,10 +1106,13 @@
       <c r="G12">
         <v>2774</v>
       </c>
+      <c r="H12">
+        <v>198</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B13">
         <v>2010</v>
@@ -1116,10 +1132,13 @@
       <c r="G13">
         <v>3053</v>
       </c>
+      <c r="H13">
+        <v>201</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>2011</v>
@@ -1142,7 +1161,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>2006</v>
@@ -1168,7 +1187,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>2007</v>
@@ -1194,7 +1213,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>2008</v>
@@ -1214,10 +1233,13 @@
       <c r="G17">
         <v>373</v>
       </c>
+      <c r="H17">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B18">
         <v>2009</v>
@@ -1237,10 +1259,13 @@
       <c r="G18">
         <v>670</v>
       </c>
+      <c r="H18">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>2010</v>
@@ -1260,10 +1285,13 @@
       <c r="G19">
         <v>679</v>
       </c>
+      <c r="H19">
+        <v>71</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>2011</v>
@@ -1286,7 +1314,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>2006</v>
@@ -1312,7 +1340,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>2007</v>
@@ -1338,7 +1366,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>2008</v>
@@ -1358,10 +1386,13 @@
       <c r="G23">
         <v>304</v>
       </c>
+      <c r="H23">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>2009</v>
@@ -1381,10 +1412,13 @@
       <c r="G24">
         <v>537</v>
       </c>
+      <c r="H24">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>2010</v>
@@ -1404,10 +1438,13 @@
       <c r="G25">
         <v>515</v>
       </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>2011</v>
@@ -1430,7 +1467,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>2006</v>
@@ -1456,7 +1493,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B28">
         <v>2007</v>
@@ -1482,7 +1519,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>2008</v>
@@ -1502,10 +1539,13 @@
       <c r="G29">
         <v>663</v>
       </c>
+      <c r="H29">
+        <v>102</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>2009</v>
@@ -1525,10 +1565,13 @@
       <c r="G30">
         <v>1260</v>
       </c>
+      <c r="H30">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B31">
         <v>2010</v>
@@ -1548,10 +1591,13 @@
       <c r="G31">
         <v>1323</v>
       </c>
+      <c r="H31">
+        <v>93</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>2011</v>
@@ -1574,7 +1620,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>2006</v>
@@ -1600,7 +1646,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B34">
         <v>2007</v>
@@ -1626,7 +1672,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>2008</v>
@@ -1646,10 +1692,13 @@
       <c r="G35">
         <v>326</v>
       </c>
+      <c r="H35">
+        <v>41</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>2009</v>
@@ -1669,10 +1718,13 @@
       <c r="G36">
         <v>586</v>
       </c>
+      <c r="H36">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>2010</v>
@@ -1692,10 +1744,13 @@
       <c r="G37">
         <v>633</v>
       </c>
+      <c r="H37">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>2011</v>
@@ -1718,7 +1773,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>2006</v>
@@ -1744,7 +1799,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>2007</v>
@@ -1770,7 +1825,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>2008</v>
@@ -1790,10 +1845,13 @@
       <c r="G41">
         <v>3368</v>
       </c>
+      <c r="H41">
+        <v>289</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B42">
         <v>2009</v>
@@ -1813,10 +1871,13 @@
       <c r="G42">
         <v>6088</v>
       </c>
+      <c r="H42">
+        <v>301</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>2010</v>
@@ -1836,10 +1897,13 @@
       <c r="G43">
         <v>5797</v>
       </c>
+      <c r="H43">
+        <v>271</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>2011</v>
@@ -1862,7 +1926,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>2006</v>
@@ -1888,7 +1952,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>2007</v>
@@ -1914,7 +1978,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>2008</v>
@@ -1934,10 +1998,13 @@
       <c r="G47">
         <v>1377</v>
       </c>
+      <c r="H47">
+        <v>422</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B48">
         <v>2009</v>
@@ -1957,10 +2024,13 @@
       <c r="G48">
         <v>2573</v>
       </c>
+      <c r="H48">
+        <v>234</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B49">
         <v>2010</v>
@@ -1980,10 +2050,13 @@
       <c r="G49">
         <v>2685</v>
       </c>
+      <c r="H49">
+        <v>229</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>2011</v>
@@ -2006,7 +2079,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>2006</v>
@@ -2032,7 +2105,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B52">
         <v>2007</v>
@@ -2058,7 +2131,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B53">
         <v>2008</v>
@@ -2078,10 +2151,13 @@
       <c r="G53">
         <v>115</v>
       </c>
+      <c r="H53">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B54">
         <v>2009</v>
@@ -2101,10 +2177,13 @@
       <c r="G54">
         <v>174</v>
       </c>
+      <c r="H54">
+        <v>27</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B55">
         <v>2010</v>
@@ -2124,10 +2203,13 @@
       <c r="G55">
         <v>187</v>
       </c>
+      <c r="H55">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B56">
         <v>2011</v>
@@ -2150,7 +2232,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B57">
         <v>2006</v>
@@ -2176,7 +2258,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>2007</v>
@@ -2202,7 +2284,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>2008</v>
@@ -2222,10 +2304,13 @@
       <c r="G59">
         <v>1276</v>
       </c>
+      <c r="H59">
+        <v>149</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B60">
         <v>2009</v>
@@ -2245,10 +2330,13 @@
       <c r="G60">
         <v>2414</v>
       </c>
+      <c r="H60">
+        <v>209</v>
+      </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B61">
         <v>2010</v>
@@ -2268,10 +2356,13 @@
       <c r="G61">
         <v>2489</v>
       </c>
+      <c r="H61">
+        <v>231</v>
+      </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B62">
         <v>2011</v>
@@ -2294,7 +2385,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>2006</v>
@@ -2320,7 +2411,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B64">
         <v>2007</v>
@@ -2346,7 +2437,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B65">
         <v>2008</v>
@@ -2366,10 +2457,13 @@
       <c r="G65">
         <v>167</v>
       </c>
+      <c r="H65">
+        <v>36</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B66">
         <v>2009</v>
@@ -2389,10 +2483,13 @@
       <c r="G66">
         <v>278</v>
       </c>
+      <c r="H66">
+        <v>29</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>2010</v>
@@ -2412,10 +2509,13 @@
       <c r="G67">
         <v>259</v>
       </c>
+      <c r="H67">
+        <v>26</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>2011</v>
@@ -2438,7 +2538,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B69">
         <v>2006</v>
@@ -2464,7 +2564,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>2007</v>
@@ -2490,7 +2590,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B71">
         <v>2008</v>
@@ -2510,10 +2610,13 @@
       <c r="G71">
         <v>581</v>
       </c>
+      <c r="H71">
+        <v>147</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>2009</v>
@@ -2533,10 +2636,13 @@
       <c r="G72">
         <v>1146</v>
       </c>
+      <c r="H72">
+        <v>128</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>2010</v>
@@ -2556,10 +2662,13 @@
       <c r="G73">
         <v>1166</v>
       </c>
+      <c r="H73">
+        <v>130</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B74">
         <v>2011</v>
@@ -2582,7 +2691,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B75">
         <v>2006</v>
@@ -2608,7 +2717,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B76">
         <v>2007</v>
@@ -2634,7 +2743,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B77">
         <v>2008</v>
@@ -2654,10 +2763,13 @@
       <c r="G77">
         <v>467</v>
       </c>
+      <c r="H77">
+        <v>46</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B78">
         <v>2009</v>
@@ -2677,10 +2789,13 @@
       <c r="G78">
         <v>840</v>
       </c>
+      <c r="H78">
+        <v>49</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>2010</v>
@@ -2700,10 +2815,13 @@
       <c r="G79">
         <v>814</v>
       </c>
+      <c r="H79">
+        <v>34</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B80">
         <v>2011</v>
@@ -2726,7 +2844,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>2006</v>
@@ -2752,7 +2870,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>2007</v>
@@ -2778,7 +2896,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B83">
         <v>2008</v>
@@ -2798,10 +2916,13 @@
       <c r="G83">
         <v>448</v>
       </c>
+      <c r="H83">
+        <v>84</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>2009</v>
@@ -2821,10 +2942,13 @@
       <c r="G84">
         <v>821</v>
       </c>
+      <c r="H84">
+        <v>84</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>2010</v>
@@ -2844,10 +2968,13 @@
       <c r="G85">
         <v>851</v>
       </c>
+      <c r="H85">
+        <v>87</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B86">
         <v>2011</v>
@@ -2870,7 +2997,7 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B87">
         <v>2006</v>
@@ -2896,7 +3023,7 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>2007</v>
@@ -2922,7 +3049,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B89">
         <v>2008</v>
@@ -2942,10 +3069,13 @@
       <c r="G89">
         <v>358</v>
       </c>
+      <c r="H89">
+        <v>59</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>2009</v>
@@ -2965,10 +3095,13 @@
       <c r="G90">
         <v>622</v>
       </c>
+      <c r="H90">
+        <v>46</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B91">
         <v>2010</v>
@@ -2988,10 +3121,13 @@
       <c r="G91">
         <v>738</v>
       </c>
+      <c r="H91">
+        <v>49</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>2011</v>
@@ -3014,7 +3150,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>2006</v>
@@ -3040,7 +3176,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>2007</v>
@@ -3066,7 +3202,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B95">
         <v>2008</v>
@@ -3086,10 +3222,13 @@
       <c r="G95">
         <v>1112</v>
       </c>
+      <c r="H95">
+        <v>136</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B96">
         <v>2009</v>
@@ -3109,10 +3248,13 @@
       <c r="G96">
         <v>2045</v>
       </c>
+      <c r="H96">
+        <v>129</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B97">
         <v>2010</v>
@@ -3132,10 +3274,13 @@
       <c r="G97">
         <v>2147</v>
       </c>
+      <c r="H97">
+        <v>133</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B98">
         <v>2011</v>
@@ -3158,7 +3303,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B99">
         <v>2006</v>
@@ -3184,7 +3329,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B100">
         <v>2007</v>
@@ -3210,7 +3355,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B101">
         <v>2008</v>
@@ -3230,10 +3375,13 @@
       <c r="G101">
         <v>686</v>
       </c>
+      <c r="H101">
+        <v>78</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B102">
         <v>2009</v>
@@ -3253,10 +3401,13 @@
       <c r="G102">
         <v>1232</v>
       </c>
+      <c r="H102">
+        <v>82</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B103">
         <v>2010</v>
@@ -3276,10 +3427,13 @@
       <c r="G103">
         <v>1365</v>
       </c>
+      <c r="H103">
+        <v>52</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B104">
         <v>2011</v>
@@ -3302,7 +3456,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B105">
         <v>2006</v>
@@ -3328,7 +3482,7 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>2007</v>
@@ -3354,7 +3508,7 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>2008</v>
@@ -3374,10 +3528,13 @@
       <c r="G107">
         <v>939</v>
       </c>
+      <c r="H107">
+        <v>136</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B108">
         <v>2009</v>
@@ -3397,10 +3554,13 @@
       <c r="G108">
         <v>1623</v>
       </c>
+      <c r="H108">
+        <v>144</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B109">
         <v>2010</v>
@@ -3420,10 +3580,13 @@
       <c r="G109">
         <v>1611</v>
       </c>
+      <c r="H109">
+        <v>170</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B110">
         <v>2011</v>
@@ -3446,7 +3609,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B111">
         <v>2006</v>
@@ -3472,7 +3635,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B112">
         <v>2007</v>
@@ -3498,7 +3661,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B113">
         <v>2008</v>
@@ -3518,10 +3681,13 @@
       <c r="G113">
         <v>195</v>
       </c>
+      <c r="H113">
+        <v>16</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B114">
         <v>2009</v>
@@ -3541,10 +3707,13 @@
       <c r="G114">
         <v>359</v>
       </c>
+      <c r="H114">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B115">
         <v>2010</v>
@@ -3564,10 +3733,13 @@
       <c r="G115">
         <v>362</v>
       </c>
+      <c r="H115">
+        <v>13</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B116">
         <v>2011</v>
@@ -3590,7 +3762,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B117">
         <v>2006</v>
@@ -3616,7 +3788,7 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B118">
         <v>2007</v>
@@ -3642,7 +3814,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B119">
         <v>2008</v>
@@ -3662,10 +3834,13 @@
       <c r="G119">
         <v>323</v>
       </c>
+      <c r="H119">
+        <v>48</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B120">
         <v>2009</v>
@@ -3685,10 +3860,13 @@
       <c r="G120">
         <v>532</v>
       </c>
+      <c r="H120">
+        <v>24</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B121">
         <v>2010</v>
@@ -3708,10 +3886,13 @@
       <c r="G121">
         <v>537</v>
       </c>
+      <c r="H121">
+        <v>39</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B122">
         <v>2011</v>
@@ -3734,7 +3915,7 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B123">
         <v>2006</v>
@@ -3760,7 +3941,7 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B124">
         <v>2007</v>
@@ -3786,7 +3967,7 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B125">
         <v>2008</v>
@@ -3806,10 +3987,13 @@
       <c r="G125">
         <v>6236</v>
       </c>
+      <c r="H125">
+        <v>1080</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B126">
         <v>2009</v>
@@ -3829,10 +4013,13 @@
       <c r="G126">
         <v>11578</v>
       </c>
+      <c r="H126">
+        <v>960</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B127">
         <v>2010</v>
@@ -3852,10 +4039,13 @@
       <c r="G127">
         <v>12544</v>
       </c>
+      <c r="H127">
+        <v>1051</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B128">
         <v>2011</v>
@@ -3878,7 +4068,7 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B129">
         <v>2006</v>
@@ -3904,7 +4094,7 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B130">
         <v>2007</v>
@@ -3930,7 +4120,7 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B131">
         <v>2008</v>
@@ -3950,10 +4140,13 @@
       <c r="G131">
         <v>281</v>
       </c>
+      <c r="H131">
+        <v>39</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B132">
         <v>2009</v>
@@ -3973,10 +4166,13 @@
       <c r="G132">
         <v>532</v>
       </c>
+      <c r="H132">
+        <v>29</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B133">
         <v>2010</v>
@@ -3996,10 +4192,13 @@
       <c r="G133">
         <v>461</v>
       </c>
+      <c r="H133">
+        <v>40</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B134">
         <v>2011</v>
@@ -4022,7 +4221,7 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B135">
         <v>2006</v>
@@ -4048,7 +4247,7 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B136">
         <v>2007</v>
@@ -4074,7 +4273,7 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B137">
         <v>2008</v>
@@ -4094,10 +4293,13 @@
       <c r="G137">
         <v>102</v>
       </c>
+      <c r="H137">
+        <v>19</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B138">
         <v>2009</v>
@@ -4117,10 +4319,13 @@
       <c r="G138">
         <v>188</v>
       </c>
+      <c r="H138">
+        <v>18</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B139">
         <v>2010</v>
@@ -4140,10 +4345,13 @@
       <c r="G139">
         <v>200</v>
       </c>
+      <c r="H139">
+        <v>24</v>
+      </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B140">
         <v>2011</v>
@@ -4166,7 +4374,7 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B141">
         <v>2006</v>
@@ -4192,7 +4400,7 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B142">
         <v>2007</v>
@@ -4218,7 +4426,7 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B143">
         <v>2008</v>
@@ -4238,10 +4446,13 @@
       <c r="G143">
         <v>1010</v>
       </c>
+      <c r="H143">
+        <v>127</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B144">
         <v>2009</v>
@@ -4261,10 +4472,13 @@
       <c r="G144">
         <v>1757</v>
       </c>
+      <c r="H144">
+        <v>137</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B145">
         <v>2010</v>
@@ -4284,10 +4498,13 @@
       <c r="G145">
         <v>1695</v>
       </c>
+      <c r="H145">
+        <v>174</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B146">
         <v>2011</v>
@@ -4310,7 +4527,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B147">
         <v>2006</v>
@@ -4336,7 +4553,7 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B148">
         <v>2007</v>
@@ -4362,7 +4579,7 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B149">
         <v>2008</v>
@@ -4382,10 +4599,13 @@
       <c r="G149">
         <v>225</v>
       </c>
+      <c r="H149">
+        <v>31</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B150">
         <v>2009</v>
@@ -4405,10 +4625,13 @@
       <c r="G150">
         <v>349</v>
       </c>
+      <c r="H150">
+        <v>33</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B151">
         <v>2010</v>
@@ -4428,10 +4651,13 @@
       <c r="G151">
         <v>390</v>
       </c>
+      <c r="H151">
+        <v>34</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B152">
         <v>2011</v>
@@ -4454,7 +4680,7 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B153">
         <v>2006</v>
@@ -4480,7 +4706,7 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B154">
         <v>2007</v>
@@ -4506,7 +4732,7 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B155">
         <v>2008</v>
@@ -4526,10 +4752,13 @@
       <c r="G155">
         <v>348</v>
       </c>
+      <c r="H155">
+        <v>65</v>
+      </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B156">
         <v>2009</v>
@@ -4549,10 +4778,13 @@
       <c r="G156">
         <v>582</v>
       </c>
+      <c r="H156">
+        <v>76</v>
+      </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B157">
         <v>2010</v>
@@ -4572,10 +4804,13 @@
       <c r="G157">
         <v>555</v>
       </c>
+      <c r="H157">
+        <v>66</v>
+      </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B158">
         <v>2011</v>
@@ -4598,7 +4833,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B159">
         <v>2006</v>
@@ -4624,7 +4859,7 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B160">
         <v>2007</v>
@@ -4650,7 +4885,7 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B161">
         <v>2008</v>
@@ -4670,10 +4905,13 @@
       <c r="G161">
         <v>599</v>
       </c>
+      <c r="H161">
+        <v>70</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B162">
         <v>2009</v>
@@ -4693,10 +4931,13 @@
       <c r="G162">
         <v>1092</v>
       </c>
+      <c r="H162">
+        <v>107</v>
+      </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B163">
         <v>2010</v>
@@ -4716,10 +4957,13 @@
       <c r="G163">
         <v>1160</v>
       </c>
+      <c r="H163">
+        <v>72</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B164">
         <v>2011</v>
@@ -4742,7 +4986,7 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B165">
         <v>2006</v>
@@ -4768,7 +5012,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B166">
         <v>2007</v>
@@ -4794,7 +5038,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B167">
         <v>2008</v>
@@ -4814,10 +5058,13 @@
       <c r="G167">
         <v>294</v>
       </c>
+      <c r="H167">
+        <v>29</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B168">
         <v>2009</v>
@@ -4837,10 +5084,13 @@
       <c r="G168">
         <v>489</v>
       </c>
+      <c r="H168">
+        <v>36</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B169">
         <v>2010</v>
@@ -4860,10 +5110,13 @@
       <c r="G169">
         <v>518</v>
       </c>
+      <c r="H169">
+        <v>30</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B170">
         <v>2011</v>
@@ -4886,7 +5139,7 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B171">
         <v>2006</v>
@@ -4912,7 +5165,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B172">
         <v>2007</v>
@@ -4938,7 +5191,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B173">
         <v>2008</v>
@@ -4958,10 +5211,13 @@
       <c r="G173">
         <v>16894</v>
       </c>
+      <c r="H173">
+        <v>1622</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B174">
         <v>2009</v>
@@ -4981,10 +5237,13 @@
       <c r="G174">
         <v>29098</v>
       </c>
+      <c r="H174">
+        <v>1907</v>
+      </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B175">
         <v>2010</v>
@@ -5004,10 +5263,13 @@
       <c r="G175">
         <v>30775</v>
       </c>
+      <c r="H175">
+        <v>3297</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B176">
         <v>2011</v>
@@ -5030,7 +5292,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B177">
         <v>2006</v>
@@ -5056,7 +5318,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B178">
         <v>2007</v>
@@ -5082,7 +5344,7 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B179">
         <v>2008</v>
@@ -5102,10 +5364,13 @@
       <c r="G179">
         <v>1268</v>
       </c>
+      <c r="H179">
+        <v>169</v>
+      </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B180">
         <v>2009</v>
@@ -5125,10 +5390,13 @@
       <c r="G180">
         <v>2132</v>
       </c>
+      <c r="H180">
+        <v>181</v>
+      </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B181">
         <v>2010</v>
@@ -5148,10 +5416,13 @@
       <c r="G181">
         <v>2123</v>
       </c>
+      <c r="H181">
+        <v>173</v>
+      </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B182">
         <v>2011</v>
@@ -5174,7 +5445,7 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B183">
         <v>2006</v>
@@ -5200,7 +5471,7 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B184">
         <v>2007</v>
@@ -5226,7 +5497,7 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B185">
         <v>2008</v>
@@ -5246,10 +5517,13 @@
       <c r="G185">
         <v>317</v>
       </c>
+      <c r="H185">
+        <v>51</v>
+      </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B186">
         <v>2009</v>
@@ -5269,10 +5543,13 @@
       <c r="G186">
         <v>584</v>
       </c>
+      <c r="H186">
+        <v>53</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B187">
         <v>2010</v>
@@ -5292,10 +5569,13 @@
       <c r="G187">
         <v>560</v>
       </c>
+      <c r="H187">
+        <v>50</v>
+      </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B188">
         <v>2011</v>
@@ -5318,7 +5598,7 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B189">
         <v>2006</v>
@@ -5344,7 +5624,7 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B190">
         <v>2007</v>
@@ -5370,7 +5650,7 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B191">
         <v>2008</v>
@@ -5390,10 +5670,13 @@
       <c r="G191">
         <v>469</v>
       </c>
+      <c r="H191">
+        <v>46</v>
+      </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B192">
         <v>2009</v>
@@ -5413,10 +5696,13 @@
       <c r="G192">
         <v>835</v>
       </c>
+      <c r="H192">
+        <v>42</v>
+      </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B193">
         <v>2010</v>
@@ -5436,10 +5722,13 @@
       <c r="G193">
         <v>812</v>
       </c>
+      <c r="H193">
+        <v>71</v>
+      </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="B194">
         <v>2011</v>
@@ -5462,7 +5751,7 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B195">
         <v>2006</v>
@@ -5488,7 +5777,7 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B196">
         <v>2007</v>
@@ -5514,7 +5803,7 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B197">
         <v>2008</v>
@@ -5534,10 +5823,13 @@
       <c r="G197">
         <v>1297</v>
       </c>
+      <c r="H197">
+        <v>125</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B198">
         <v>2009</v>
@@ -5557,10 +5849,13 @@
       <c r="G198">
         <v>2288</v>
       </c>
+      <c r="H198">
+        <v>148</v>
+      </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B199">
         <v>2010</v>
@@ -5580,10 +5875,13 @@
       <c r="G199">
         <v>2257</v>
       </c>
+      <c r="H199">
+        <v>167</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B200">
         <v>2011</v>
@@ -5606,7 +5904,7 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B201">
         <v>2006</v>
@@ -5632,7 +5930,7 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B202">
         <v>2007</v>
@@ -5658,7 +5956,7 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B203">
         <v>2008</v>
@@ -5678,10 +5976,13 @@
       <c r="G203">
         <v>1742</v>
       </c>
+      <c r="H203">
+        <v>260</v>
+      </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B204">
         <v>2009</v>
@@ -5701,10 +6002,13 @@
       <c r="G204">
         <v>3213</v>
       </c>
+      <c r="H204">
+        <v>332</v>
+      </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B205">
         <v>2010</v>
@@ -5724,10 +6028,13 @@
       <c r="G205">
         <v>3026</v>
       </c>
+      <c r="H205">
+        <v>400</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B206">
         <v>2011</v>
@@ -5750,7 +6057,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B207">
         <v>2006</v>
@@ -5776,7 +6083,7 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B208">
         <v>2007</v>
@@ -5802,7 +6109,7 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B209">
         <v>2008</v>
@@ -5822,10 +6129,13 @@
       <c r="G209">
         <v>452</v>
       </c>
+      <c r="H209">
+        <v>49</v>
+      </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B210">
         <v>2009</v>
@@ -5845,10 +6155,13 @@
       <c r="G210">
         <v>793</v>
       </c>
+      <c r="H210">
+        <v>81</v>
+      </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B211">
         <v>2010</v>
@@ -5868,10 +6181,13 @@
       <c r="G211">
         <v>793</v>
       </c>
+      <c r="H211">
+        <v>74</v>
+      </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B212">
         <v>2011</v>
@@ -5894,7 +6210,7 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B213">
         <v>2006</v>
@@ -5920,7 +6236,7 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B214">
         <v>2007</v>
@@ -5946,7 +6262,7 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B215">
         <v>2008</v>
@@ -5966,10 +6282,13 @@
       <c r="G215">
         <v>734</v>
       </c>
+      <c r="H215">
+        <v>145</v>
+      </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B216">
         <v>2009</v>
@@ -5989,10 +6308,13 @@
       <c r="G216">
         <v>1304</v>
       </c>
+      <c r="H216">
+        <v>139</v>
+      </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B217">
         <v>2010</v>
@@ -6012,10 +6334,13 @@
       <c r="G217">
         <v>1346</v>
       </c>
+      <c r="H217">
+        <v>173</v>
+      </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B218">
         <v>2011</v>
@@ -6038,7 +6363,7 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B219">
         <v>2006</v>
@@ -6064,7 +6389,7 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B220">
         <v>2007</v>
@@ -6090,7 +6415,7 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B221">
         <v>2008</v>
@@ -6110,10 +6435,13 @@
       <c r="G221">
         <v>381</v>
       </c>
+      <c r="H221">
+        <v>58</v>
+      </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B222">
         <v>2009</v>
@@ -6133,10 +6461,13 @@
       <c r="G222">
         <v>771</v>
       </c>
+      <c r="H222">
+        <v>49</v>
+      </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B223">
         <v>2010</v>
@@ -6156,10 +6487,13 @@
       <c r="G223">
         <v>741</v>
       </c>
+      <c r="H223">
+        <v>45</v>
+      </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B224">
         <v>2011</v>
@@ -6182,7 +6516,7 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B225">
         <v>2006</v>
@@ -6208,7 +6542,7 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B226">
         <v>2007</v>
@@ -6234,7 +6568,7 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B227">
         <v>2008</v>
@@ -6254,10 +6588,13 @@
       <c r="G227">
         <v>465</v>
       </c>
+      <c r="H227">
+        <v>75</v>
+      </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B228">
         <v>2009</v>
@@ -6277,10 +6614,13 @@
       <c r="G228">
         <v>812</v>
       </c>
+      <c r="H228">
+        <v>105</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B229">
         <v>2010</v>
@@ -6300,10 +6640,13 @@
       <c r="G229">
         <v>871</v>
       </c>
+      <c r="H229">
+        <v>103</v>
+      </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B230">
         <v>2011</v>
@@ -6326,7 +6669,7 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B231">
         <v>2006</v>
@@ -6352,7 +6695,7 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B232">
         <v>2007</v>
@@ -6378,7 +6721,7 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B233">
         <v>2008</v>
@@ -6398,10 +6741,13 @@
       <c r="G233">
         <v>351</v>
       </c>
+      <c r="H233">
+        <v>31</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B234">
         <v>2009</v>
@@ -6421,10 +6767,13 @@
       <c r="G234">
         <v>648</v>
       </c>
+      <c r="H234">
+        <v>35</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B235">
         <v>2010</v>
@@ -6444,10 +6793,13 @@
       <c r="G235">
         <v>643</v>
       </c>
+      <c r="H235">
+        <v>40</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B236">
         <v>2011</v>
@@ -6470,7 +6822,7 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B237">
         <v>2006</v>
@@ -6496,7 +6848,7 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B238">
         <v>2007</v>
@@ -6522,7 +6874,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B239">
         <v>2008</v>
@@ -6542,10 +6894,13 @@
       <c r="G239">
         <v>243</v>
       </c>
+      <c r="H239">
+        <v>52</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B240">
         <v>2009</v>
@@ -6565,10 +6920,13 @@
       <c r="G240">
         <v>410</v>
       </c>
+      <c r="H240">
+        <v>50</v>
+      </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B241">
         <v>2010</v>
@@ -6588,10 +6946,13 @@
       <c r="G241">
         <v>461</v>
       </c>
+      <c r="H241">
+        <v>48</v>
+      </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B242">
         <v>2011</v>
@@ -6614,7 +6975,7 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B243">
         <v>2006</v>
@@ -6640,7 +7001,7 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B244">
         <v>2007</v>
@@ -6666,7 +7027,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B245">
         <v>2008</v>
@@ -6686,10 +7047,13 @@
       <c r="G245">
         <v>1082</v>
       </c>
+      <c r="H245">
+        <v>130</v>
+      </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B246">
         <v>2009</v>
@@ -6709,10 +7073,13 @@
       <c r="G246">
         <v>1940</v>
       </c>
+      <c r="H246">
+        <v>102</v>
+      </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B247">
         <v>2010</v>
@@ -6732,10 +7099,13 @@
       <c r="G247">
         <v>2029</v>
       </c>
+      <c r="H247">
+        <v>125</v>
+      </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B248">
         <v>2011</v>
@@ -6758,7 +7128,7 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B249">
         <v>2006</v>
@@ -6784,7 +7154,7 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B250">
         <v>2007</v>
@@ -6810,7 +7180,7 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B251">
         <v>2008</v>
@@ -6830,10 +7200,13 @@
       <c r="G251">
         <v>1924</v>
       </c>
+      <c r="H251">
+        <v>315</v>
+      </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B252">
         <v>2009</v>
@@ -6853,10 +7226,13 @@
       <c r="G252">
         <v>3708</v>
       </c>
+      <c r="H252">
+        <v>300</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B253">
         <v>2010</v>
@@ -6876,10 +7252,13 @@
       <c r="G253">
         <v>3597</v>
       </c>
+      <c r="H253">
+        <v>352</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B254">
         <v>2011</v>
@@ -6902,7 +7281,7 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B255">
         <v>2006</v>
@@ -6928,7 +7307,7 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B256">
         <v>2007</v>
@@ -6954,7 +7333,7 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B257">
         <v>2008</v>
@@ -6974,10 +7353,13 @@
       <c r="G257">
         <v>6053</v>
       </c>
+      <c r="H257">
+        <v>876</v>
+      </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B258">
         <v>2009</v>
@@ -6997,10 +7379,13 @@
       <c r="G258">
         <v>11759</v>
       </c>
+      <c r="H258">
+        <v>805</v>
+      </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B259">
         <v>2010</v>
@@ -7020,10 +7405,13 @@
       <c r="G259">
         <v>12340</v>
       </c>
+      <c r="H259">
+        <v>965</v>
+      </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B260">
         <v>2011</v>
@@ -7046,7 +7434,7 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B261">
         <v>2006</v>
@@ -7072,7 +7460,7 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B262">
         <v>2007</v>
@@ -7098,7 +7486,7 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B263">
         <v>2008</v>
@@ -7118,10 +7506,13 @@
       <c r="G263">
         <v>2046</v>
       </c>
+      <c r="H263">
+        <v>241</v>
+      </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B264">
         <v>2009</v>
@@ -7141,10 +7532,13 @@
       <c r="G264">
         <v>3646</v>
       </c>
+      <c r="H264">
+        <v>202</v>
+      </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B265">
         <v>2010</v>
@@ -7164,10 +7558,13 @@
       <c r="G265">
         <v>3579</v>
       </c>
+      <c r="H265">
+        <v>214</v>
+      </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B266">
         <v>2011</v>
@@ -7190,7 +7587,7 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B267">
         <v>2006</v>
@@ -7216,7 +7613,7 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B268">
         <v>2007</v>
@@ -7242,7 +7639,7 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B269">
         <v>2008</v>
@@ -7262,10 +7659,13 @@
       <c r="G269">
         <v>58</v>
       </c>
+      <c r="H269">
+        <v>6</v>
+      </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B270">
         <v>2009</v>
@@ -7285,10 +7685,13 @@
       <c r="G270">
         <v>91</v>
       </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B271">
         <v>2010</v>
@@ -7308,10 +7711,13 @@
       <c r="G271">
         <v>89</v>
       </c>
+      <c r="H271">
+        <v>2</v>
+      </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B272">
         <v>2011</v>
@@ -7334,7 +7740,7 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B273">
         <v>2006</v>
@@ -7360,7 +7766,7 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B274">
         <v>2007</v>
@@ -7386,7 +7792,7 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B275">
         <v>2008</v>
@@ -7406,10 +7812,13 @@
       <c r="G275">
         <v>704</v>
       </c>
+      <c r="H275">
+        <v>96</v>
+      </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B276">
         <v>2009</v>
@@ -7429,10 +7838,13 @@
       <c r="G276">
         <v>1217</v>
       </c>
+      <c r="H276">
+        <v>73</v>
+      </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B277">
         <v>2010</v>
@@ -7452,10 +7864,13 @@
       <c r="G277">
         <v>1389</v>
       </c>
+      <c r="H277">
+        <v>85</v>
+      </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B278">
         <v>2011</v>
@@ -7478,7 +7893,7 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B279">
         <v>2006</v>
@@ -7504,7 +7919,7 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B280">
         <v>2007</v>
@@ -7530,7 +7945,7 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B281">
         <v>2008</v>
@@ -7550,10 +7965,13 @@
       <c r="G281">
         <v>1031</v>
       </c>
+      <c r="H281">
+        <v>172</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B282">
         <v>2009</v>
@@ -7573,10 +7991,13 @@
       <c r="G282">
         <v>1797</v>
       </c>
+      <c r="H282">
+        <v>137</v>
+      </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B283">
         <v>2010</v>
@@ -7596,10 +8017,13 @@
       <c r="G283">
         <v>2153</v>
       </c>
+      <c r="H283">
+        <v>203</v>
+      </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B284">
         <v>2011</v>
@@ -7622,7 +8046,7 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B285">
         <v>2006</v>
@@ -7648,7 +8072,7 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B286">
         <v>2007</v>
@@ -7674,7 +8098,7 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B287">
         <v>2008</v>
@@ -7694,10 +8118,13 @@
       <c r="G287">
         <v>154</v>
       </c>
+      <c r="H287">
+        <v>19</v>
+      </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B288">
         <v>2009</v>
@@ -7717,10 +8144,13 @@
       <c r="G288">
         <v>272</v>
       </c>
+      <c r="H288">
+        <v>18</v>
+      </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B289">
         <v>2010</v>
@@ -7740,10 +8170,13 @@
       <c r="G289">
         <v>284</v>
       </c>
+      <c r="H289">
+        <v>20</v>
+      </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B290">
         <v>2011</v>
@@ -7766,7 +8199,7 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B291">
         <v>2006</v>
@@ -7792,7 +8225,7 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B292">
         <v>2007</v>
@@ -7818,7 +8251,7 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B293">
         <v>2008</v>
@@ -7838,10 +8271,13 @@
       <c r="G293">
         <v>492</v>
       </c>
+      <c r="H293">
+        <v>104</v>
+      </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B294">
         <v>2009</v>
@@ -7861,10 +8297,13 @@
       <c r="G294">
         <v>807</v>
       </c>
+      <c r="H294">
+        <v>72</v>
+      </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B295">
         <v>2010</v>
@@ -7884,10 +8323,13 @@
       <c r="G295">
         <v>837</v>
       </c>
+      <c r="H295">
+        <v>73</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B296">
         <v>2011</v>
@@ -7910,7 +8352,7 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B297">
         <v>2006</v>
@@ -7936,7 +8378,7 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B298">
         <v>2007</v>
@@ -7962,7 +8404,7 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B299">
         <v>2008</v>
@@ -7982,10 +8424,13 @@
       <c r="G299">
         <v>329</v>
       </c>
+      <c r="H299">
+        <v>32</v>
+      </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B300">
         <v>2009</v>
@@ -8005,10 +8450,13 @@
       <c r="G300">
         <v>632</v>
       </c>
+      <c r="H300">
+        <v>43</v>
+      </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B301">
         <v>2010</v>
@@ -8028,10 +8476,13 @@
       <c r="G301">
         <v>636</v>
       </c>
+      <c r="H301">
+        <v>44</v>
+      </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B302">
         <v>2011</v>
@@ -8054,7 +8505,7 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B303">
         <v>2006</v>
@@ -8080,7 +8531,7 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B304">
         <v>2007</v>
@@ -8106,7 +8557,7 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B305">
         <v>2008</v>
@@ -8126,10 +8577,13 @@
       <c r="G305">
         <v>317</v>
       </c>
+      <c r="H305">
+        <v>31</v>
+      </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B306">
         <v>2009</v>
@@ -8149,10 +8603,13 @@
       <c r="G306">
         <v>546</v>
       </c>
+      <c r="H306">
+        <v>26</v>
+      </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B307">
         <v>2010</v>
@@ -8172,10 +8629,13 @@
       <c r="G307">
         <v>540</v>
       </c>
+      <c r="H307">
+        <v>29</v>
+      </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B308">
         <v>2011</v>
@@ -8198,7 +8658,7 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B309">
         <v>2006</v>
@@ -8224,7 +8684,7 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B310">
         <v>2007</v>
@@ -8250,7 +8710,7 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B311">
         <v>2008</v>
@@ -8270,10 +8730,13 @@
       <c r="G311">
         <v>521</v>
       </c>
+      <c r="H311">
+        <v>142</v>
+      </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B312">
         <v>2009</v>
@@ -8293,10 +8756,13 @@
       <c r="G312">
         <v>760</v>
       </c>
+      <c r="H312">
+        <v>123</v>
+      </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B313">
         <v>2010</v>
@@ -8316,10 +8782,13 @@
       <c r="G313">
         <v>831</v>
       </c>
+      <c r="H313">
+        <v>108</v>
+      </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B314">
         <v>2011</v>
@@ -8342,7 +8811,7 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B315">
         <v>2006</v>
@@ -8368,7 +8837,7 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B316">
         <v>2007</v>
@@ -8394,7 +8863,7 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B317">
         <v>2008</v>
@@ -8414,10 +8883,13 @@
       <c r="G317">
         <v>4865</v>
       </c>
+      <c r="H317">
+        <v>583</v>
+      </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B318">
         <v>2009</v>
@@ -8437,10 +8909,13 @@
       <c r="G318">
         <v>8518</v>
       </c>
+      <c r="H318">
+        <v>615</v>
+      </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B319">
         <v>2010</v>
@@ -8460,10 +8935,13 @@
       <c r="G319">
         <v>8788</v>
       </c>
+      <c r="H319">
+        <v>639</v>
+      </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B320">
         <v>2011</v>
@@ -8486,7 +8964,7 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B321">
         <v>2006</v>
@@ -8512,7 +8990,7 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B322">
         <v>2007</v>
@@ -8538,7 +9016,7 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B323">
         <v>2008</v>
@@ -8558,10 +9036,13 @@
       <c r="G323">
         <v>708</v>
       </c>
+      <c r="H323">
+        <v>102</v>
+      </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B324">
         <v>2009</v>
@@ -8581,10 +9062,13 @@
       <c r="G324">
         <v>1360</v>
       </c>
+      <c r="H324">
+        <v>78</v>
+      </c>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B325">
         <v>2010</v>
@@ -8604,10 +9088,13 @@
       <c r="G325">
         <v>1329</v>
       </c>
+      <c r="H325">
+        <v>88</v>
+      </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B326">
         <v>2011</v>
@@ -8630,7 +9117,7 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B327">
         <v>2006</v>
@@ -8656,7 +9143,7 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B328">
         <v>2007</v>
@@ -8682,7 +9169,7 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B329">
         <v>2008</v>
@@ -8702,10 +9189,13 @@
       <c r="G329">
         <v>328</v>
       </c>
+      <c r="H329">
+        <v>42</v>
+      </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B330">
         <v>2009</v>
@@ -8725,10 +9215,13 @@
       <c r="G330">
         <v>542</v>
       </c>
+      <c r="H330">
+        <v>35</v>
+      </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B331">
         <v>2010</v>
@@ -8748,10 +9241,13 @@
       <c r="G331">
         <v>545</v>
       </c>
+      <c r="H331">
+        <v>37</v>
+      </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B332">
         <v>2011</v>
@@ -8774,7 +9270,7 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B333">
         <v>2006</v>
@@ -8800,7 +9296,7 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B334">
         <v>2007</v>
@@ -8826,7 +9322,7 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B335">
         <v>2008</v>
@@ -8846,10 +9342,13 @@
       <c r="G335">
         <v>278</v>
       </c>
+      <c r="H335">
+        <v>33</v>
+      </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B336">
         <v>2009</v>
@@ -8869,10 +9368,13 @@
       <c r="G336">
         <v>475</v>
       </c>
+      <c r="H336">
+        <v>26</v>
+      </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B337">
         <v>2010</v>
@@ -8892,10 +9394,13 @@
       <c r="G337">
         <v>453</v>
       </c>
+      <c r="H337">
+        <v>22</v>
+      </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B338">
         <v>2011</v>
@@ -8918,7 +9423,7 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B339">
         <v>2006</v>
@@ -8944,7 +9449,7 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B340">
         <v>2007</v>
@@ -8970,7 +9475,7 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B341">
         <v>2008</v>
@@ -8990,10 +9495,13 @@
       <c r="G341">
         <v>160</v>
       </c>
+      <c r="H341">
+        <v>37</v>
+      </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B342">
         <v>2009</v>
@@ -9013,10 +9521,13 @@
       <c r="G342">
         <v>249</v>
       </c>
+      <c r="H342" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B343">
         <v>2010</v>
@@ -9036,10 +9547,13 @@
       <c r="G343">
         <v>269</v>
       </c>
+      <c r="H343">
+        <v>32</v>
+      </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B344">
         <v>2011</v>
@@ -9062,7 +9576,7 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B345">
         <v>2006</v>
@@ -9088,7 +9602,7 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B346">
         <v>2007</v>
@@ -9114,7 +9628,7 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B347">
         <v>2008</v>
@@ -9134,10 +9648,13 @@
       <c r="G347">
         <v>884</v>
       </c>
+      <c r="H347">
+        <v>101</v>
+      </c>
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B348">
         <v>2009</v>
@@ -9157,10 +9674,13 @@
       <c r="G348">
         <v>1597</v>
       </c>
+      <c r="H348">
+        <v>103</v>
+      </c>
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B349">
         <v>2010</v>
@@ -9180,10 +9700,13 @@
       <c r="G349">
         <v>1626</v>
       </c>
+      <c r="H349">
+        <v>109</v>
+      </c>
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B350">
         <v>2011</v>
@@ -9206,7 +9729,7 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B351">
         <v>2006</v>
@@ -9232,7 +9755,7 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B352">
         <v>2007</v>
@@ -9258,7 +9781,7 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B353">
         <v>2008</v>
@@ -9278,10 +9801,13 @@
       <c r="G353">
         <v>197</v>
       </c>
+      <c r="H353">
+        <v>28</v>
+      </c>
     </row>
     <row r="354" spans="1:8">
       <c r="A354" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B354">
         <v>2009</v>
@@ -9301,10 +9827,13 @@
       <c r="G354">
         <v>359</v>
       </c>
+      <c r="H354">
+        <v>21</v>
+      </c>
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B355">
         <v>2010</v>
@@ -9324,10 +9853,13 @@
       <c r="G355">
         <v>375</v>
       </c>
+      <c r="H355">
+        <v>30</v>
+      </c>
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B356">
         <v>2011</v>
@@ -9350,7 +9882,7 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B357">
         <v>2006</v>
@@ -9376,7 +9908,7 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B358">
         <v>2007</v>
@@ -9402,7 +9934,7 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B359">
         <v>2008</v>
@@ -9422,10 +9954,13 @@
       <c r="G359">
         <v>1877</v>
       </c>
+      <c r="H359">
+        <v>269</v>
+      </c>
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B360">
         <v>2009</v>
@@ -9445,10 +9980,13 @@
       <c r="G360">
         <v>3294</v>
       </c>
+      <c r="H360">
+        <v>270</v>
+      </c>
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B361">
         <v>2010</v>
@@ -9468,10 +10006,13 @@
       <c r="G361">
         <v>3436</v>
       </c>
+      <c r="H361">
+        <v>295</v>
+      </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B362">
         <v>2011</v>
@@ -9494,7 +10035,7 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B363">
         <v>2006</v>
@@ -9520,7 +10061,7 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B364">
         <v>2007</v>
@@ -9546,7 +10087,7 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B365">
         <v>2008</v>
@@ -9566,10 +10107,13 @@
       <c r="G365">
         <v>291</v>
       </c>
+      <c r="H365">
+        <v>24</v>
+      </c>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B366">
         <v>2009</v>
@@ -9589,10 +10133,13 @@
       <c r="G366">
         <v>535</v>
       </c>
+      <c r="H366">
+        <v>44</v>
+      </c>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B367">
         <v>2010</v>
@@ -9612,10 +10159,13 @@
       <c r="G367">
         <v>525</v>
       </c>
+      <c r="H367">
+        <v>31</v>
+      </c>
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B368">
         <v>2011</v>
@@ -9638,7 +10188,7 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B369">
         <v>2006</v>
@@ -9664,7 +10214,7 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B370">
         <v>2007</v>
@@ -9690,7 +10240,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B371">
         <v>2008</v>
@@ -9710,10 +10260,13 @@
       <c r="G371">
         <v>357</v>
       </c>
+      <c r="H371">
+        <v>47</v>
+      </c>
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B372">
         <v>2009</v>
@@ -9733,10 +10286,13 @@
       <c r="G372">
         <v>715</v>
       </c>
+      <c r="H372">
+        <v>50</v>
+      </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B373">
         <v>2010</v>
@@ -9756,10 +10312,13 @@
       <c r="G373">
         <v>767</v>
       </c>
+      <c r="H373">
+        <v>44</v>
+      </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B374">
         <v>2011</v>
@@ -9782,7 +10341,7 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B375">
         <v>2006</v>
@@ -9808,7 +10367,7 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B376">
         <v>2007</v>
@@ -9834,7 +10393,7 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B377">
         <v>2008</v>
@@ -9854,10 +10413,13 @@
       <c r="G377">
         <v>333</v>
       </c>
+      <c r="H377">
+        <v>42</v>
+      </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B378">
         <v>2009</v>
@@ -9877,10 +10439,13 @@
       <c r="G378">
         <v>509</v>
       </c>
+      <c r="H378">
+        <v>33</v>
+      </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B379">
         <v>2010</v>
@@ -9900,10 +10465,13 @@
       <c r="G379">
         <v>518</v>
       </c>
+      <c r="H379">
+        <v>39</v>
+      </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B380">
         <v>2011</v>
@@ -9926,7 +10494,7 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B381">
         <v>2006</v>
@@ -9952,7 +10520,7 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B382">
         <v>2007</v>
@@ -9978,7 +10546,7 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B383">
         <v>2008</v>
@@ -9998,10 +10566,13 @@
       <c r="G383">
         <v>337</v>
       </c>
+      <c r="H383">
+        <v>25</v>
+      </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B384">
         <v>2009</v>
@@ -10021,10 +10592,13 @@
       <c r="G384">
         <v>554</v>
       </c>
+      <c r="H384">
+        <v>22</v>
+      </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B385">
         <v>2010</v>
@@ -10044,10 +10618,13 @@
       <c r="G385">
         <v>520</v>
       </c>
+      <c r="H385">
+        <v>15</v>
+      </c>
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B386">
         <v>2011</v>
@@ -10070,7 +10647,7 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B387">
         <v>2006</v>
@@ -10096,7 +10673,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B388">
         <v>2007</v>
@@ -10122,7 +10699,7 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B389">
         <v>2008</v>
@@ -10142,10 +10719,13 @@
       <c r="G389">
         <v>362</v>
       </c>
+      <c r="H389">
+        <v>52</v>
+      </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B390">
         <v>2009</v>
@@ -10165,10 +10745,13 @@
       <c r="G390">
         <v>554</v>
       </c>
+      <c r="H390">
+        <v>45</v>
+      </c>
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B391">
         <v>2010</v>
@@ -10188,10 +10771,13 @@
       <c r="G391">
         <v>552</v>
       </c>
+      <c r="H391">
+        <v>48</v>
+      </c>
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B392">
         <v>2011</v>
@@ -10214,7 +10800,7 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B393">
         <v>2006</v>
@@ -10240,7 +10826,7 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B394">
         <v>2007</v>
@@ -10266,7 +10852,7 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B395">
         <v>2008</v>
@@ -10286,10 +10872,13 @@
       <c r="G395">
         <v>720</v>
       </c>
+      <c r="H395">
+        <v>78</v>
+      </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B396">
         <v>2009</v>
@@ -10309,10 +10898,13 @@
       <c r="G396">
         <v>1272</v>
       </c>
+      <c r="H396">
+        <v>73</v>
+      </c>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B397">
         <v>2010</v>
@@ -10332,10 +10924,13 @@
       <c r="G397">
         <v>1280</v>
       </c>
+      <c r="H397">
+        <v>67</v>
+      </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B398">
         <v>2011</v>
@@ -10358,7 +10953,7 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B399">
         <v>2006</v>
@@ -10384,7 +10979,7 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B400">
         <v>2007</v>
@@ -10410,7 +11005,7 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B401">
         <v>2008</v>
@@ -10430,10 +11025,13 @@
       <c r="G401">
         <v>814</v>
       </c>
+      <c r="H401">
+        <v>123</v>
+      </c>
     </row>
     <row r="402" spans="1:8">
       <c r="A402" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B402">
         <v>2009</v>
@@ -10453,10 +11051,13 @@
       <c r="G402">
         <v>1477</v>
       </c>
+      <c r="H402">
+        <v>95</v>
+      </c>
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B403">
         <v>2010</v>
@@ -10476,10 +11077,13 @@
       <c r="G403">
         <v>1419</v>
       </c>
+      <c r="H403">
+        <v>94</v>
+      </c>
     </row>
     <row r="404" spans="1:8">
       <c r="A404" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B404">
         <v>2011</v>
@@ -10502,7 +11106,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B405">
         <v>2006</v>
@@ -10528,7 +11132,7 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B406">
         <v>2007</v>
@@ -10554,7 +11158,7 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B407">
         <v>2008</v>
@@ -10574,10 +11178,13 @@
       <c r="G407">
         <v>594</v>
       </c>
+      <c r="H407">
+        <v>62</v>
+      </c>
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B408">
         <v>2009</v>
@@ -10597,10 +11204,13 @@
       <c r="G408">
         <v>1072</v>
       </c>
+      <c r="H408">
+        <v>43</v>
+      </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B409">
         <v>2010</v>
@@ -10620,10 +11230,13 @@
       <c r="G409">
         <v>1051</v>
       </c>
+      <c r="H409">
+        <v>62</v>
+      </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B410">
         <v>2011</v>
@@ -10646,7 +11259,7 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B411">
         <v>2006</v>
@@ -10672,7 +11285,7 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B412">
         <v>2007</v>
@@ -10698,7 +11311,7 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B413">
         <v>2008</v>
@@ -10718,10 +11331,13 @@
       <c r="G413">
         <v>2117</v>
       </c>
+      <c r="H413">
+        <v>279</v>
+      </c>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B414">
         <v>2009</v>
@@ -10741,10 +11357,13 @@
       <c r="G414">
         <v>3507</v>
       </c>
+      <c r="H414">
+        <v>262</v>
+      </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B415">
         <v>2010</v>
@@ -10764,10 +11383,13 @@
       <c r="G415">
         <v>3435</v>
       </c>
+      <c r="H415">
+        <v>300</v>
+      </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B416">
         <v>2011</v>
@@ -10790,7 +11412,7 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B417">
         <v>2006</v>
@@ -10816,7 +11438,7 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B418">
         <v>2007</v>
@@ -10842,7 +11464,7 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B419">
         <v>2008</v>
@@ -10862,10 +11484,13 @@
       <c r="G419">
         <v>491</v>
       </c>
+      <c r="H419">
+        <v>81</v>
+      </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B420">
         <v>2009</v>
@@ -10885,10 +11510,13 @@
       <c r="G420">
         <v>928</v>
       </c>
+      <c r="H420">
+        <v>76</v>
+      </c>
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B421">
         <v>2010</v>
@@ -10908,10 +11536,13 @@
       <c r="G421">
         <v>986</v>
       </c>
+      <c r="H421">
+        <v>71</v>
+      </c>
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B422">
         <v>2011</v>
@@ -10934,7 +11565,7 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B423">
         <v>2006</v>
@@ -10960,7 +11591,7 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B424">
         <v>2007</v>
@@ -10986,7 +11617,7 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B425">
         <v>2008</v>
@@ -11006,10 +11637,13 @@
       <c r="G425">
         <v>533</v>
       </c>
+      <c r="H425">
+        <v>61</v>
+      </c>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B426">
         <v>2009</v>
@@ -11029,10 +11663,13 @@
       <c r="G426">
         <v>925</v>
       </c>
+      <c r="H426">
+        <v>72</v>
+      </c>
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B427">
         <v>2010</v>
@@ -11052,10 +11689,13 @@
       <c r="G427">
         <v>1008</v>
       </c>
+      <c r="H427">
+        <v>76</v>
+      </c>
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B428">
         <v>2011</v>
@@ -11078,7 +11718,7 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B429">
         <v>2006</v>
@@ -11104,7 +11744,7 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B430">
         <v>2007</v>
@@ -11130,7 +11770,7 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B431">
         <v>2008</v>
@@ -11150,10 +11790,13 @@
       <c r="G431">
         <v>640</v>
       </c>
+      <c r="H431">
+        <v>144</v>
+      </c>
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B432">
         <v>2009</v>
@@ -11173,10 +11816,13 @@
       <c r="G432">
         <v>1086</v>
       </c>
+      <c r="H432">
+        <v>148</v>
+      </c>
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B433">
         <v>2010</v>
@@ -11196,10 +11842,13 @@
       <c r="G433">
         <v>1098</v>
       </c>
+      <c r="H433">
+        <v>111</v>
+      </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B434">
         <v>2011</v>
@@ -11222,7 +11871,7 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B435">
         <v>2006</v>
@@ -11248,7 +11897,7 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B436">
         <v>2007</v>
@@ -11274,7 +11923,7 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B437">
         <v>2008</v>
@@ -11294,10 +11943,13 @@
       <c r="G437">
         <v>6810</v>
       </c>
+      <c r="H437">
+        <v>901</v>
+      </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B438">
         <v>2009</v>
@@ -11317,10 +11969,13 @@
       <c r="G438">
         <v>11824</v>
       </c>
+      <c r="H438">
+        <v>670</v>
+      </c>
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B439">
         <v>2010</v>
@@ -11340,10 +11995,13 @@
       <c r="G439">
         <v>13032</v>
       </c>
+      <c r="H439">
+        <v>706</v>
+      </c>
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B440">
         <v>2011</v>
@@ -11366,7 +12024,7 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B441">
         <v>2006</v>
@@ -11392,7 +12050,7 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B442">
         <v>2007</v>
@@ -11418,7 +12076,7 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B443">
         <v>2008</v>
@@ -11438,10 +12096,13 @@
       <c r="G443">
         <v>1163</v>
       </c>
+      <c r="H443">
+        <v>176</v>
+      </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B444">
         <v>2009</v>
@@ -11461,10 +12122,13 @@
       <c r="G444">
         <v>2060</v>
       </c>
+      <c r="H444">
+        <v>136</v>
+      </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B445">
         <v>2010</v>
@@ -11484,10 +12148,13 @@
       <c r="G445">
         <v>1724</v>
       </c>
+      <c r="H445">
+        <v>173</v>
+      </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B446">
         <v>2011</v>
@@ -11510,7 +12177,7 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B447">
         <v>2006</v>
@@ -11536,7 +12203,7 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B448">
         <v>2007</v>
@@ -11562,7 +12229,7 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B449">
         <v>2008</v>
@@ -11582,10 +12249,13 @@
       <c r="G449">
         <v>150</v>
       </c>
+      <c r="H449">
+        <v>26</v>
+      </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B450">
         <v>2009</v>
@@ -11605,10 +12275,13 @@
       <c r="G450">
         <v>256</v>
       </c>
+      <c r="H450">
+        <v>24</v>
+      </c>
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B451">
         <v>2010</v>
@@ -11628,10 +12301,13 @@
       <c r="G451">
         <v>251</v>
       </c>
+      <c r="H451">
+        <v>18</v>
+      </c>
     </row>
     <row r="452" spans="1:8">
       <c r="A452" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B452">
         <v>2011</v>
@@ -11654,7 +12330,7 @@
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B453" s="1">
         <v>2006</v>
@@ -11680,7 +12356,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B454" s="1">
         <v>2007</v>
@@ -11706,7 +12382,7 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B455" s="1">
         <v>2008</v>
@@ -11726,10 +12402,13 @@
       <c r="G455">
         <v>196</v>
       </c>
+      <c r="H455">
+        <v>35</v>
+      </c>
     </row>
     <row r="456" spans="1:8">
       <c r="A456" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B456" s="1">
         <v>2009</v>
@@ -11749,10 +12428,13 @@
       <c r="G456">
         <v>328</v>
       </c>
+      <c r="H456">
+        <v>21</v>
+      </c>
     </row>
     <row r="457" spans="1:8">
       <c r="A457" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B457" s="1">
         <v>2010</v>
@@ -11772,10 +12454,13 @@
       <c r="G457">
         <v>339</v>
       </c>
+      <c r="H457">
+        <v>16</v>
+      </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B458" s="1">
         <v>2011</v>
@@ -11798,7 +12483,7 @@
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B459" s="1">
         <v>2006</v>
@@ -11824,7 +12509,7 @@
     </row>
     <row r="460" spans="1:8">
       <c r="A460" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B460" s="1">
         <v>2007</v>
@@ -11850,7 +12535,7 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B461" s="1">
         <v>2008</v>
@@ -11870,10 +12555,13 @@
       <c r="G461">
         <v>1591</v>
       </c>
+      <c r="H461">
+        <v>311</v>
+      </c>
     </row>
     <row r="462" spans="1:8">
       <c r="A462" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B462" s="1">
         <v>2009</v>
@@ -11893,10 +12581,13 @@
       <c r="G462">
         <v>2968</v>
       </c>
+      <c r="H462">
+        <v>285</v>
+      </c>
     </row>
     <row r="463" spans="1:8">
       <c r="A463" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B463" s="1">
         <v>2010</v>
@@ -11916,10 +12607,13 @@
       <c r="G463">
         <v>3225</v>
       </c>
+      <c r="H463">
+        <v>275</v>
+      </c>
     </row>
     <row r="464" spans="1:8">
       <c r="A464" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B464" s="1">
         <v>2011</v>
@@ -11942,7 +12636,7 @@
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B465">
         <v>2006</v>
@@ -11968,7 +12662,7 @@
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B466">
         <v>2007</v>
@@ -11994,7 +12688,7 @@
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B467">
         <v>2008</v>
@@ -12014,10 +12708,13 @@
       <c r="G467">
         <v>477</v>
       </c>
+      <c r="H467">
+        <v>98</v>
+      </c>
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B468">
         <v>2009</v>
@@ -12037,10 +12734,13 @@
       <c r="G468">
         <v>784</v>
       </c>
+      <c r="H468">
+        <v>85</v>
+      </c>
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B469">
         <v>2010</v>
@@ -12060,10 +12760,13 @@
       <c r="G469">
         <v>828</v>
       </c>
+      <c r="H469">
+        <v>94</v>
+      </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B470">
         <v>2011</v>
@@ -12086,7 +12789,7 @@
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B471">
         <v>2006</v>
@@ -12112,7 +12815,7 @@
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B472">
         <v>2007</v>
@@ -12138,7 +12841,7 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B473">
         <v>2008</v>
@@ -12158,10 +12861,13 @@
       <c r="G473">
         <v>1418</v>
       </c>
+      <c r="H473">
+        <v>396</v>
+      </c>
     </row>
     <row r="474" spans="1:8">
       <c r="A474" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B474">
         <v>2009</v>
@@ -12181,10 +12887,13 @@
       <c r="G474">
         <v>2547</v>
       </c>
+      <c r="H474">
+        <v>344</v>
+      </c>
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B475">
         <v>2010</v>
@@ -12204,10 +12913,13 @@
       <c r="G475">
         <v>2669</v>
       </c>
+      <c r="H475">
+        <v>350</v>
+      </c>
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B476">
         <v>2011</v>
@@ -12230,7 +12942,7 @@
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B477">
         <v>2006</v>
@@ -12256,7 +12968,7 @@
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B478">
         <v>2007</v>
@@ -12282,7 +12994,7 @@
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B479">
         <v>2008</v>
@@ -12302,10 +13014,13 @@
       <c r="G479">
         <v>684</v>
       </c>
+      <c r="H479">
+        <v>136</v>
+      </c>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B480">
         <v>2009</v>
@@ -12325,10 +13040,13 @@
       <c r="G480">
         <v>1357</v>
       </c>
+      <c r="H480">
+        <v>156</v>
+      </c>
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B481">
         <v>2010</v>
@@ -12348,10 +13066,13 @@
       <c r="G481">
         <v>1237</v>
       </c>
+      <c r="H481">
+        <v>158</v>
+      </c>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B482">
         <v>2011</v>
@@ -12374,7 +13095,7 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B483">
         <v>2006</v>
@@ -12400,7 +13121,7 @@
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B484">
         <v>2007</v>
@@ -12426,7 +13147,7 @@
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B485">
         <v>2008</v>
@@ -12446,10 +13167,13 @@
       <c r="G485">
         <v>549</v>
       </c>
+      <c r="H485">
+        <v>94</v>
+      </c>
     </row>
     <row r="486" spans="1:8">
       <c r="A486" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B486">
         <v>2009</v>
@@ -12469,10 +13193,13 @@
       <c r="G486">
         <v>979</v>
       </c>
+      <c r="H486">
+        <v>112</v>
+      </c>
     </row>
     <row r="487" spans="1:8">
       <c r="A487" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B487">
         <v>2010</v>
@@ -12492,10 +13219,13 @@
       <c r="G487">
         <v>973</v>
       </c>
+      <c r="H487">
+        <v>105</v>
+      </c>
     </row>
     <row r="488" spans="1:8">
       <c r="A488" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B488">
         <v>2011</v>
@@ -12518,7 +13248,7 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B489">
         <v>2006</v>
@@ -12544,7 +13274,7 @@
     </row>
     <row r="490" spans="1:8">
       <c r="A490" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B490">
         <v>2007</v>
@@ -12570,7 +13300,7 @@
     </row>
     <row r="491" spans="1:8">
       <c r="A491" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B491">
         <v>2008</v>
@@ -12590,10 +13320,13 @@
       <c r="G491">
         <v>947</v>
       </c>
+      <c r="H491">
+        <v>142</v>
+      </c>
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B492">
         <v>2009</v>
@@ -12613,10 +13346,13 @@
       <c r="G492">
         <v>1725</v>
       </c>
+      <c r="H492">
+        <v>153</v>
+      </c>
     </row>
     <row r="493" spans="1:8">
       <c r="A493" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B493">
         <v>2010</v>
@@ -12636,10 +13372,13 @@
       <c r="G493">
         <v>1710</v>
       </c>
+      <c r="H493">
+        <v>128</v>
+      </c>
     </row>
     <row r="494" spans="1:8">
       <c r="A494" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B494">
         <v>2011</v>
@@ -12662,7 +13401,7 @@
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B495">
         <v>2006</v>
@@ -12688,7 +13427,7 @@
     </row>
     <row r="496" spans="1:8">
       <c r="A496" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B496">
         <v>2007</v>
@@ -12714,7 +13453,7 @@
     </row>
     <row r="497" spans="1:8">
       <c r="A497" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B497">
         <v>2008</v>
@@ -12734,10 +13473,13 @@
       <c r="G497">
         <v>923</v>
       </c>
+      <c r="H497">
+        <v>187</v>
+      </c>
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B498">
         <v>2009</v>
@@ -12757,10 +13499,13 @@
       <c r="G498">
         <v>1753</v>
       </c>
+      <c r="H498">
+        <v>179</v>
+      </c>
     </row>
     <row r="499" spans="1:8">
       <c r="A499" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B499">
         <v>2010</v>
@@ -12780,10 +13525,13 @@
       <c r="G499">
         <v>1661</v>
       </c>
+      <c r="H499">
+        <v>160</v>
+      </c>
     </row>
     <row r="500" spans="1:8">
       <c r="A500" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B500">
         <v>2011</v>
@@ -12806,7 +13554,7 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B501">
         <v>2006</v>
@@ -12832,7 +13580,7 @@
     </row>
     <row r="502" spans="1:8">
       <c r="A502" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B502">
         <v>2007</v>
@@ -12858,7 +13606,7 @@
     </row>
     <row r="503" spans="1:8">
       <c r="A503" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B503">
         <v>2008</v>
@@ -12878,10 +13626,13 @@
       <c r="G503">
         <v>391</v>
       </c>
+      <c r="H503">
+        <v>67</v>
+      </c>
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B504">
         <v>2009</v>
@@ -12901,10 +13652,13 @@
       <c r="G504">
         <v>671</v>
       </c>
+      <c r="H504">
+        <v>77</v>
+      </c>
     </row>
     <row r="505" spans="1:8">
       <c r="A505" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B505">
         <v>2010</v>
@@ -12924,10 +13678,13 @@
       <c r="G505">
         <v>834</v>
       </c>
+      <c r="H505">
+        <v>59</v>
+      </c>
     </row>
     <row r="506" spans="1:8">
       <c r="A506" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B506">
         <v>2011</v>
@@ -12950,7 +13707,7 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B507">
         <v>2006</v>
@@ -12976,7 +13733,7 @@
     </row>
     <row r="508" spans="1:8">
       <c r="A508" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B508">
         <v>2007</v>
@@ -13002,7 +13759,7 @@
     </row>
     <row r="509" spans="1:8">
       <c r="A509" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B509">
         <v>2008</v>
@@ -13022,10 +13779,13 @@
       <c r="G509">
         <v>2269</v>
       </c>
+      <c r="H509">
+        <v>376</v>
+      </c>
     </row>
     <row r="510" spans="1:8">
       <c r="A510" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B510">
         <v>2009</v>
@@ -13045,10 +13805,13 @@
       <c r="G510">
         <v>3799</v>
       </c>
+      <c r="H510">
+        <v>365</v>
+      </c>
     </row>
     <row r="511" spans="1:8">
       <c r="A511" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B511">
         <v>2010</v>
@@ -13068,10 +13831,13 @@
       <c r="G511">
         <v>4291</v>
       </c>
+      <c r="H511">
+        <v>288</v>
+      </c>
     </row>
     <row r="512" spans="1:8">
       <c r="A512" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B512">
         <v>2011</v>
@@ -13094,7 +13860,7 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B513">
         <v>2006</v>
@@ -13120,7 +13886,7 @@
     </row>
     <row r="514" spans="1:8">
       <c r="A514" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B514">
         <v>2007</v>
@@ -13146,7 +13912,7 @@
     </row>
     <row r="515" spans="1:8">
       <c r="A515" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B515">
         <v>2008</v>
@@ -13166,10 +13932,13 @@
       <c r="G515">
         <v>2284</v>
       </c>
+      <c r="H515">
+        <v>437</v>
+      </c>
     </row>
     <row r="516" spans="1:8">
       <c r="A516" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B516">
         <v>2009</v>
@@ -13189,10 +13958,13 @@
       <c r="G516">
         <v>3732</v>
       </c>
+      <c r="H516">
+        <v>397</v>
+      </c>
     </row>
     <row r="517" spans="1:8">
       <c r="A517" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B517">
         <v>2010</v>
@@ -13212,10 +13984,13 @@
       <c r="G517">
         <v>4027</v>
       </c>
+      <c r="H517">
+        <v>372</v>
+      </c>
     </row>
     <row r="518" spans="1:8">
       <c r="A518" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B518">
         <v>2011</v>
@@ -13238,7 +14013,7 @@
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B519">
         <v>2006</v>
@@ -13264,7 +14039,7 @@
     </row>
     <row r="520" spans="1:8">
       <c r="A520" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B520">
         <v>2007</v>
@@ -13290,7 +14065,7 @@
     </row>
     <row r="521" spans="1:8">
       <c r="A521" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B521">
         <v>2008</v>
@@ -13310,10 +14085,13 @@
       <c r="G521">
         <v>171</v>
       </c>
+      <c r="H521">
+        <v>23</v>
+      </c>
     </row>
     <row r="522" spans="1:8">
       <c r="A522" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B522">
         <v>2009</v>
@@ -13333,10 +14111,13 @@
       <c r="G522">
         <v>290</v>
       </c>
+      <c r="H522">
+        <v>14</v>
+      </c>
     </row>
     <row r="523" spans="1:8">
       <c r="A523" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B523">
         <v>2010</v>
@@ -13356,10 +14137,13 @@
       <c r="G523">
         <v>332</v>
       </c>
+      <c r="H523">
+        <v>17</v>
+      </c>
     </row>
     <row r="524" spans="1:8">
       <c r="A524" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B524">
         <v>2011</v>
@@ -13382,7 +14166,7 @@
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B525">
         <v>2006</v>
@@ -13408,7 +14192,7 @@
     </row>
     <row r="526" spans="1:8">
       <c r="A526" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B526">
         <v>2007</v>
@@ -13434,7 +14218,7 @@
     </row>
     <row r="527" spans="1:8">
       <c r="A527" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B527">
         <v>2008</v>
@@ -13454,10 +14238,13 @@
       <c r="G527">
         <v>263</v>
       </c>
+      <c r="H527">
+        <v>22</v>
+      </c>
     </row>
     <row r="528" spans="1:8">
       <c r="A528" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B528">
         <v>2009</v>
@@ -13477,10 +14264,13 @@
       <c r="G528">
         <v>469</v>
       </c>
+      <c r="H528">
+        <v>34</v>
+      </c>
     </row>
     <row r="529" spans="1:8">
       <c r="A529" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B529">
         <v>2010</v>
@@ -13500,10 +14290,13 @@
       <c r="G529">
         <v>467</v>
       </c>
+      <c r="H529">
+        <v>28</v>
+      </c>
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B530">
         <v>2011</v>
@@ -13526,7 +14319,7 @@
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B531">
         <v>2006</v>
@@ -13552,7 +14345,7 @@
     </row>
     <row r="532" spans="1:8">
       <c r="A532" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B532">
         <v>2007</v>
@@ -13578,7 +14371,7 @@
     </row>
     <row r="533" spans="1:8">
       <c r="A533" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B533">
         <v>2008</v>
@@ -13598,10 +14391,13 @@
       <c r="G533">
         <v>913</v>
       </c>
+      <c r="H533">
+        <v>193</v>
+      </c>
     </row>
     <row r="534" spans="1:8">
       <c r="A534" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B534">
         <v>2009</v>
@@ -13621,10 +14417,13 @@
       <c r="G534">
         <v>1687</v>
       </c>
+      <c r="H534">
+        <v>230</v>
+      </c>
     </row>
     <row r="535" spans="1:8">
       <c r="A535" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B535">
         <v>2010</v>
@@ -13644,10 +14443,13 @@
       <c r="G535">
         <v>1496</v>
       </c>
+      <c r="H535">
+        <v>212</v>
+      </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B536">
         <v>2011</v>
@@ -13670,7 +14472,7 @@
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B537">
         <v>2006</v>
@@ -13696,7 +14498,7 @@
     </row>
     <row r="538" spans="1:8">
       <c r="A538" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B538">
         <v>2007</v>
@@ -13722,7 +14524,7 @@
     </row>
     <row r="539" spans="1:8">
       <c r="A539" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B539">
         <v>2008</v>
@@ -13742,10 +14544,13 @@
       <c r="G539">
         <v>887</v>
       </c>
+      <c r="H539">
+        <v>192</v>
+      </c>
     </row>
     <row r="540" spans="1:8">
       <c r="A540" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B540">
         <v>2009</v>
@@ -13765,10 +14570,13 @@
       <c r="G540">
         <v>1551</v>
       </c>
+      <c r="H540">
+        <v>286</v>
+      </c>
     </row>
     <row r="541" spans="1:8">
       <c r="A541" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B541">
         <v>2010</v>
@@ -13788,10 +14596,13 @@
       <c r="G541">
         <v>1479</v>
       </c>
+      <c r="H541">
+        <v>302</v>
+      </c>
     </row>
     <row r="542" spans="1:8">
       <c r="A542" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B542">
         <v>2011</v>
@@ -13814,7 +14625,7 @@
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B543">
         <v>2006</v>
@@ -13840,7 +14651,7 @@
     </row>
     <row r="544" spans="1:8">
       <c r="A544" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B544">
         <v>2007</v>
@@ -13866,7 +14677,7 @@
     </row>
     <row r="545" spans="1:8">
       <c r="A545" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B545">
         <v>2008</v>
@@ -13886,10 +14697,13 @@
       <c r="G545">
         <v>1357</v>
       </c>
+      <c r="H545">
+        <v>221</v>
+      </c>
     </row>
     <row r="546" spans="1:8">
       <c r="A546" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B546">
         <v>2009</v>
@@ -13909,10 +14723,13 @@
       <c r="G546">
         <v>2389</v>
       </c>
+      <c r="H546">
+        <v>215</v>
+      </c>
     </row>
     <row r="547" spans="1:8">
       <c r="A547" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B547">
         <v>2010</v>
@@ -13932,10 +14749,13 @@
       <c r="G547">
         <v>2421</v>
       </c>
+      <c r="H547">
+        <v>251</v>
+      </c>
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B548">
         <v>2011</v>
@@ -13958,7 +14778,7 @@
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B549">
         <v>2006</v>
@@ -13984,7 +14804,7 @@
     </row>
     <row r="550" spans="1:8">
       <c r="A550" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B550">
         <v>2007</v>
@@ -14010,7 +14830,7 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B551">
         <v>2008</v>
@@ -14030,10 +14850,13 @@
       <c r="G551">
         <v>449</v>
       </c>
+      <c r="H551">
+        <v>21</v>
+      </c>
     </row>
     <row r="552" spans="1:8">
       <c r="A552" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B552">
         <v>2009</v>
@@ -14053,10 +14876,13 @@
       <c r="G552">
         <v>723</v>
       </c>
+      <c r="H552">
+        <v>30</v>
+      </c>
     </row>
     <row r="553" spans="1:8">
       <c r="A553" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B553">
         <v>2010</v>
@@ -14076,10 +14902,13 @@
       <c r="G553">
         <v>737</v>
       </c>
+      <c r="H553">
+        <v>18</v>
+      </c>
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B554">
         <v>2011</v>
@@ -14102,7 +14931,7 @@
     </row>
     <row r="555" spans="1:8">
       <c r="A555" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B555">
         <v>2006</v>
@@ -14128,7 +14957,7 @@
     </row>
     <row r="556" spans="1:8">
       <c r="A556" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B556">
         <v>2007</v>
@@ -14154,7 +14983,7 @@
     </row>
     <row r="557" spans="1:8">
       <c r="A557" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B557">
         <v>2008</v>
@@ -14174,10 +15003,13 @@
       <c r="G557">
         <v>836</v>
       </c>
+      <c r="H557">
+        <v>292</v>
+      </c>
     </row>
     <row r="558" spans="1:8">
       <c r="A558" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B558">
         <v>2009</v>
@@ -14197,10 +15029,13 @@
       <c r="G558">
         <v>1336</v>
       </c>
+      <c r="H558">
+        <v>249</v>
+      </c>
     </row>
     <row r="559" spans="1:8">
       <c r="A559" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B559">
         <v>2010</v>
@@ -14220,10 +15055,13 @@
       <c r="G559">
         <v>1451</v>
       </c>
+      <c r="H559">
+        <v>244</v>
+      </c>
     </row>
     <row r="560" spans="1:8">
       <c r="A560" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B560">
         <v>2011</v>
@@ -14246,7 +15084,7 @@
     </row>
     <row r="561" spans="1:8">
       <c r="A561" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B561">
         <v>2006</v>
@@ -14272,7 +15110,7 @@
     </row>
     <row r="562" spans="1:8">
       <c r="A562" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B562">
         <v>2007</v>
@@ -14298,7 +15136,7 @@
     </row>
     <row r="563" spans="1:8">
       <c r="A563" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B563">
         <v>2008</v>
@@ -14318,10 +15156,13 @@
       <c r="G563">
         <v>868</v>
       </c>
+      <c r="H563">
+        <v>122</v>
+      </c>
     </row>
     <row r="564" spans="1:8">
       <c r="A564" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B564">
         <v>2009</v>
@@ -14341,10 +15182,13 @@
       <c r="G564">
         <v>1788</v>
       </c>
+      <c r="H564">
+        <v>146</v>
+      </c>
     </row>
     <row r="565" spans="1:8">
       <c r="A565" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B565">
         <v>2010</v>
@@ -14364,10 +15208,13 @@
       <c r="G565">
         <v>1582</v>
       </c>
+      <c r="H565">
+        <v>145</v>
+      </c>
     </row>
     <row r="566" spans="1:8">
       <c r="A566" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B566">
         <v>2011</v>
@@ -14390,7 +15237,7 @@
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B567">
         <v>2006</v>
@@ -14416,7 +15263,7 @@
     </row>
     <row r="568" spans="1:8">
       <c r="A568" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B568">
         <v>2007</v>
@@ -14442,7 +15289,7 @@
     </row>
     <row r="569" spans="1:8">
       <c r="A569" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B569">
         <v>2008</v>
@@ -14462,10 +15309,13 @@
       <c r="G569">
         <v>1034</v>
       </c>
+      <c r="H569">
+        <v>189</v>
+      </c>
     </row>
     <row r="570" spans="1:8">
       <c r="A570" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B570">
         <v>2009</v>
@@ -14485,10 +15335,13 @@
       <c r="G570">
         <v>1681</v>
       </c>
+      <c r="H570">
+        <v>227</v>
+      </c>
     </row>
     <row r="571" spans="1:8">
       <c r="A571" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B571">
         <v>2010</v>
@@ -14508,10 +15361,13 @@
       <c r="G571">
         <v>1934</v>
       </c>
+      <c r="H571">
+        <v>213</v>
+      </c>
     </row>
     <row r="572" spans="1:8">
       <c r="A572" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B572">
         <v>2011</v>

--- a/virginiaSuicideDataSet.xlsx
+++ b/virginiaSuicideDataSet.xlsx
@@ -453,18 +453,12 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,10 +473,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,9 +808,9 @@
   <dimension ref="A2:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1300" topLeftCell="A382" activePane="bottomLeft"/>
+      <pane ySplit="1300" topLeftCell="A526" activePane="bottomLeft"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="H380" sqref="H380"/>
+      <selection pane="bottomLeft" activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1005,6 +998,9 @@
       <c r="G8">
         <v>1357</v>
       </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1158,6 +1154,9 @@
       <c r="G14">
         <v>2874</v>
       </c>
+      <c r="H14">
+        <v>211</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -1311,6 +1310,9 @@
       <c r="G20">
         <v>616</v>
       </c>
+      <c r="H20">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -1464,6 +1466,9 @@
       <c r="G26">
         <v>465</v>
       </c>
+      <c r="H26">
+        <v>54</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1617,6 +1622,9 @@
       <c r="G32">
         <v>1139</v>
       </c>
+      <c r="H32">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -1770,6 +1778,9 @@
       <c r="G38">
         <v>549</v>
       </c>
+      <c r="H38">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -1923,6 +1934,9 @@
       <c r="G44">
         <v>5387</v>
       </c>
+      <c r="H44">
+        <v>316</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -2076,6 +2090,9 @@
       <c r="G50">
         <v>2397</v>
       </c>
+      <c r="H50">
+        <v>227</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -2229,6 +2246,9 @@
       <c r="G56">
         <v>158</v>
       </c>
+      <c r="H56">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
@@ -2382,6 +2402,9 @@
       <c r="G62">
         <v>2273</v>
       </c>
+      <c r="H62">
+        <v>258</v>
+      </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
@@ -2535,6 +2558,9 @@
       <c r="G68">
         <v>218</v>
       </c>
+      <c r="H68">
+        <v>35</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -2688,6 +2714,9 @@
       <c r="G74">
         <v>1066</v>
       </c>
+      <c r="H74">
+        <v>120</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -2841,6 +2870,9 @@
       <c r="G80">
         <v>740</v>
       </c>
+      <c r="H80">
+        <v>38</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
@@ -2994,6 +3026,9 @@
       <c r="G86">
         <v>721</v>
       </c>
+      <c r="H86">
+        <v>94</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -3147,6 +3182,9 @@
       <c r="G92">
         <v>658</v>
       </c>
+      <c r="H92">
+        <v>68</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -3300,6 +3338,9 @@
       <c r="G98">
         <v>1964</v>
       </c>
+      <c r="H98">
+        <v>137</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
@@ -3453,6 +3494,9 @@
       <c r="G104">
         <v>1232</v>
       </c>
+      <c r="H104">
+        <v>58</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
@@ -3606,6 +3650,9 @@
       <c r="G110">
         <v>1340</v>
       </c>
+      <c r="H110">
+        <v>169</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
@@ -3759,6 +3806,9 @@
       <c r="G116">
         <v>335</v>
       </c>
+      <c r="H116">
+        <v>15</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
@@ -3912,6 +3962,9 @@
       <c r="G122">
         <v>521</v>
       </c>
+      <c r="H122">
+        <v>35</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
@@ -4065,6 +4118,9 @@
       <c r="G128">
         <v>11590</v>
       </c>
+      <c r="H128">
+        <v>1106</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
@@ -4218,6 +4274,9 @@
       <c r="G134">
         <v>413</v>
       </c>
+      <c r="H134">
+        <v>41</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
@@ -4371,6 +4430,9 @@
       <c r="G140">
         <v>191</v>
       </c>
+      <c r="H140">
+        <v>11</v>
+      </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
@@ -4524,6 +4586,9 @@
       <c r="G146">
         <v>1504</v>
       </c>
+      <c r="H146">
+        <v>131</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
@@ -4677,6 +4742,9 @@
       <c r="G152">
         <v>338</v>
       </c>
+      <c r="H152">
+        <v>34</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
@@ -4830,6 +4898,9 @@
       <c r="G158">
         <v>514</v>
       </c>
+      <c r="H158">
+        <v>62</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
@@ -4983,6 +5054,9 @@
       <c r="G164">
         <v>1059</v>
       </c>
+      <c r="H164">
+        <v>90</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
@@ -5136,6 +5210,9 @@
       <c r="G170">
         <v>467</v>
       </c>
+      <c r="H170">
+        <v>38</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
@@ -5289,6 +5366,9 @@
       <c r="G176">
         <v>28905</v>
       </c>
+      <c r="H176">
+        <v>3559</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
@@ -5442,6 +5522,9 @@
       <c r="G182">
         <v>1859</v>
       </c>
+      <c r="H182">
+        <v>183</v>
+      </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
@@ -5595,6 +5678,9 @@
       <c r="G188">
         <v>525</v>
       </c>
+      <c r="H188">
+        <v>50</v>
+      </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
@@ -5748,6 +5834,9 @@
       <c r="G194">
         <v>760</v>
       </c>
+      <c r="H194">
+        <v>54</v>
+      </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
@@ -5901,6 +5990,9 @@
       <c r="G200">
         <v>1936</v>
       </c>
+      <c r="H200">
+        <v>215</v>
+      </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
@@ -6054,6 +6146,9 @@
       <c r="G206">
         <v>2747</v>
       </c>
+      <c r="H206">
+        <v>359</v>
+      </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
@@ -6207,6 +6302,9 @@
       <c r="G212">
         <v>632</v>
       </c>
+      <c r="H212">
+        <v>103</v>
+      </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
@@ -6360,6 +6458,9 @@
       <c r="G218">
         <v>1198</v>
       </c>
+      <c r="H218">
+        <v>173</v>
+      </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
@@ -6513,6 +6614,9 @@
       <c r="G224">
         <v>664</v>
       </c>
+      <c r="H224">
+        <v>52</v>
+      </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
@@ -6666,6 +6770,9 @@
       <c r="G230">
         <v>723</v>
       </c>
+      <c r="H230">
+        <v>91</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
@@ -6819,6 +6926,9 @@
       <c r="G236">
         <v>583</v>
       </c>
+      <c r="H236">
+        <v>48</v>
+      </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
@@ -6972,6 +7082,9 @@
       <c r="G242">
         <v>418</v>
       </c>
+      <c r="H242">
+        <v>46</v>
+      </c>
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
@@ -7125,6 +7238,9 @@
       <c r="G248">
         <v>1771</v>
       </c>
+      <c r="H248">
+        <v>136</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
@@ -7278,6 +7394,9 @@
       <c r="G254">
         <v>3322</v>
       </c>
+      <c r="H254">
+        <v>343</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
@@ -7431,6 +7550,9 @@
       <c r="G260">
         <v>11361</v>
       </c>
+      <c r="H260">
+        <v>1001</v>
+      </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
@@ -7584,6 +7706,9 @@
       <c r="G266">
         <v>2845</v>
       </c>
+      <c r="H266">
+        <v>206</v>
+      </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
@@ -7737,6 +7862,9 @@
       <c r="G272">
         <v>81</v>
       </c>
+      <c r="H272">
+        <v>5</v>
+      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
@@ -7890,6 +8018,9 @@
       <c r="G278">
         <v>1286</v>
       </c>
+      <c r="H278">
+        <v>93</v>
+      </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
@@ -8043,6 +8174,9 @@
       <c r="G284">
         <v>2102</v>
       </c>
+      <c r="H284">
+        <v>174</v>
+      </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
@@ -8196,6 +8330,9 @@
       <c r="G290">
         <v>262</v>
       </c>
+      <c r="H290">
+        <v>18</v>
+      </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
@@ -8349,6 +8486,9 @@
       <c r="G296">
         <v>809</v>
       </c>
+      <c r="H296">
+        <v>71</v>
+      </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
@@ -8502,6 +8642,9 @@
       <c r="G302">
         <v>606</v>
       </c>
+      <c r="H302">
+        <v>46</v>
+      </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
@@ -8655,6 +8798,9 @@
       <c r="G308">
         <v>510</v>
       </c>
+      <c r="H308">
+        <v>23</v>
+      </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
@@ -8808,6 +8954,9 @@
       <c r="G314">
         <v>787</v>
       </c>
+      <c r="H314">
+        <v>108</v>
+      </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
@@ -8961,6 +9110,9 @@
       <c r="G320">
         <v>8213</v>
       </c>
+      <c r="H320">
+        <v>655</v>
+      </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
@@ -9114,6 +9266,9 @@
       <c r="G326">
         <v>1206</v>
       </c>
+      <c r="H326">
+        <v>77</v>
+      </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
@@ -9267,6 +9422,9 @@
       <c r="G332">
         <v>485</v>
       </c>
+      <c r="H332">
+        <v>44</v>
+      </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
@@ -9420,6 +9578,9 @@
       <c r="G338">
         <v>373</v>
       </c>
+      <c r="H338">
+        <v>23</v>
+      </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
@@ -9521,7 +9682,7 @@
       <c r="G342">
         <v>249</v>
       </c>
-      <c r="H342" s="2">
+      <c r="H342" s="1">
         <v>41</v>
       </c>
     </row>
@@ -9573,6 +9734,9 @@
       <c r="G344">
         <v>280</v>
       </c>
+      <c r="H344">
+        <v>26</v>
+      </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
@@ -9726,6 +9890,9 @@
       <c r="G350">
         <v>1462</v>
       </c>
+      <c r="H350">
+        <v>101</v>
+      </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
@@ -9879,6 +10046,9 @@
       <c r="G356">
         <v>336</v>
       </c>
+      <c r="H356">
+        <v>30</v>
+      </c>
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
@@ -10032,6 +10202,9 @@
       <c r="G362">
         <v>3139</v>
       </c>
+      <c r="H362">
+        <v>283</v>
+      </c>
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
@@ -10185,6 +10358,9 @@
       <c r="G368">
         <v>450</v>
       </c>
+      <c r="H368">
+        <v>40</v>
+      </c>
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
@@ -10338,6 +10514,9 @@
       <c r="G374">
         <v>680</v>
       </c>
+      <c r="H374">
+        <v>58</v>
+      </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
@@ -10491,6 +10670,9 @@
       <c r="G380">
         <v>543</v>
       </c>
+      <c r="H380">
+        <v>36</v>
+      </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
@@ -10644,6 +10826,9 @@
       <c r="G386">
         <v>531</v>
       </c>
+      <c r="H386">
+        <v>18</v>
+      </c>
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
@@ -10797,6 +10982,9 @@
       <c r="G392">
         <v>514</v>
       </c>
+      <c r="H392">
+        <v>41</v>
+      </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
@@ -10950,6 +11138,9 @@
       <c r="G398">
         <v>1171</v>
       </c>
+      <c r="H398">
+        <v>72</v>
+      </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
@@ -11103,6 +11294,9 @@
       <c r="G404">
         <v>1357</v>
       </c>
+      <c r="H404">
+        <v>81</v>
+      </c>
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
@@ -11256,6 +11450,9 @@
       <c r="G410">
         <v>851</v>
       </c>
+      <c r="H410">
+        <v>68</v>
+      </c>
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
@@ -11409,6 +11606,9 @@
       <c r="G416">
         <v>2820</v>
       </c>
+      <c r="H416">
+        <v>288</v>
+      </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
@@ -11562,6 +11762,9 @@
       <c r="G422">
         <v>869</v>
       </c>
+      <c r="H422">
+        <v>70</v>
+      </c>
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
@@ -11715,6 +11918,9 @@
       <c r="G428">
         <v>933</v>
       </c>
+      <c r="H428">
+        <v>67</v>
+      </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
@@ -11868,6 +12074,9 @@
       <c r="G434">
         <v>1103</v>
       </c>
+      <c r="H434">
+        <v>117</v>
+      </c>
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
@@ -12021,6 +12230,9 @@
       <c r="G440">
         <v>12336</v>
       </c>
+      <c r="H440">
+        <v>860</v>
+      </c>
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
@@ -12174,6 +12386,9 @@
       <c r="G446">
         <v>1292</v>
       </c>
+      <c r="H446">
+        <v>172</v>
+      </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
@@ -12327,6 +12542,9 @@
       <c r="G452">
         <v>221</v>
       </c>
+      <c r="H452">
+        <v>22</v>
+      </c>
     </row>
     <row r="453" spans="1:8">
       <c r="A453" s="1" t="s">
@@ -12480,6 +12698,9 @@
       <c r="G458">
         <v>318</v>
       </c>
+      <c r="H458">
+        <v>13</v>
+      </c>
     </row>
     <row r="459" spans="1:8">
       <c r="A459" s="1" t="s">
@@ -12633,6 +12854,9 @@
       <c r="G464">
         <v>2875</v>
       </c>
+      <c r="H464">
+        <v>304</v>
+      </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
@@ -12786,6 +13010,9 @@
       <c r="G470">
         <v>734</v>
       </c>
+      <c r="H470">
+        <v>85</v>
+      </c>
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
@@ -12939,6 +13166,9 @@
       <c r="G476">
         <v>2434</v>
       </c>
+      <c r="H476">
+        <v>438</v>
+      </c>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
@@ -13092,6 +13322,9 @@
       <c r="G482">
         <v>1119</v>
       </c>
+      <c r="H482">
+        <v>170</v>
+      </c>
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
@@ -13245,6 +13478,9 @@
       <c r="G488">
         <v>833</v>
       </c>
+      <c r="H488">
+        <v>91</v>
+      </c>
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
@@ -13398,6 +13634,9 @@
       <c r="G494">
         <v>1468</v>
       </c>
+      <c r="H494">
+        <v>150</v>
+      </c>
     </row>
     <row r="495" spans="1:8">
       <c r="A495" t="s">
@@ -13551,6 +13790,9 @@
       <c r="G500">
         <v>1478</v>
       </c>
+      <c r="H500">
+        <v>170</v>
+      </c>
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
@@ -13704,6 +13946,9 @@
       <c r="G506">
         <v>733</v>
       </c>
+      <c r="H506">
+        <v>83</v>
+      </c>
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
@@ -13857,6 +14102,9 @@
       <c r="G512">
         <v>4076</v>
       </c>
+      <c r="H512">
+        <v>321</v>
+      </c>
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
@@ -14010,6 +14258,9 @@
       <c r="G518">
         <v>3882</v>
       </c>
+      <c r="H518">
+        <v>380</v>
+      </c>
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
@@ -14163,6 +14414,9 @@
       <c r="G524">
         <v>305</v>
       </c>
+      <c r="H524">
+        <v>20</v>
+      </c>
     </row>
     <row r="525" spans="1:8">
       <c r="A525" t="s">
@@ -14316,6 +14570,9 @@
       <c r="G530">
         <v>416</v>
       </c>
+      <c r="H530">
+        <v>21</v>
+      </c>
     </row>
     <row r="531" spans="1:8">
       <c r="A531" t="s">
@@ -14469,6 +14726,9 @@
       <c r="G536">
         <v>1406</v>
       </c>
+      <c r="H536">
+        <v>229</v>
+      </c>
     </row>
     <row r="537" spans="1:8">
       <c r="A537" t="s">
@@ -14622,6 +14882,9 @@
       <c r="G542">
         <v>1351</v>
       </c>
+      <c r="H542">
+        <v>294</v>
+      </c>
     </row>
     <row r="543" spans="1:8">
       <c r="A543" t="s">
@@ -14775,6 +15038,9 @@
       <c r="G548">
         <v>2241</v>
       </c>
+      <c r="H548">
+        <v>279</v>
+      </c>
     </row>
     <row r="549" spans="1:8">
       <c r="A549" t="s">
@@ -14928,6 +15194,9 @@
       <c r="G554">
         <v>693</v>
       </c>
+      <c r="H554">
+        <v>21</v>
+      </c>
     </row>
     <row r="555" spans="1:8">
       <c r="A555" t="s">
@@ -15081,6 +15350,9 @@
       <c r="G560">
         <v>1329</v>
       </c>
+      <c r="H560">
+        <v>250</v>
+      </c>
     </row>
     <row r="561" spans="1:8">
       <c r="A561" t="s">
@@ -15234,6 +15506,9 @@
       <c r="G566">
         <v>1291</v>
       </c>
+      <c r="H566">
+        <v>155</v>
+      </c>
     </row>
     <row r="567" spans="1:8">
       <c r="A567" t="s">
@@ -15387,9 +15662,11 @@
       <c r="G572">
         <v>2008</v>
       </c>
+      <c r="H572">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
